--- a/Team-Data/2008-09/3-16-2008-09.xlsx
+++ b/Team-Data/2008-09/3-16-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -762,7 +829,7 @@
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -786,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
         <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.742</v>
+        <v>0.746</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J3" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="K3" t="n">
         <v>0.485</v>
@@ -878,31 +945,31 @@
         <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W3" t="n">
         <v>7.8</v>
@@ -911,22 +978,22 @@
         <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA3" t="n">
         <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -950,22 +1017,22 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
         <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.433</v>
+        <v>0.424</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="J4" t="n">
-        <v>76.7</v>
+        <v>76.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.454</v>
@@ -1057,34 +1124,34 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O4" t="n">
         <v>17.7</v>
       </c>
       <c r="P4" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.744</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T4" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="U4" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V4" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1096,31 +1163,31 @@
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA4" t="n">
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
         <v>18</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1138,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>25</v>
@@ -1156,7 +1223,7 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
         <v>12</v>
@@ -1165,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
         <v>16</v>
@@ -1174,16 +1241,16 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA4" t="n">
         <v>15</v>
       </c>
       <c r="BB4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
         <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>0.439</v>
+        <v>0.448</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,67 +1297,67 @@
         <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
         <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.789</v>
       </c>
       <c r="R5" t="n">
         <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V5" t="n">
         <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1311,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
@@ -1332,10 +1399,10 @@
         <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1344,13 +1411,13 @@
         <v>14</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="n">
         <v>53</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.803</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.469</v>
@@ -1421,16 +1488,16 @@
         <v>8.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="O6" t="n">
         <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
         <v>0.754</v>
@@ -1439,16 +1506,16 @@
         <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.7</v>
@@ -1457,22 +1524,22 @@
         <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,10 +1554,10 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1505,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1520,25 +1587,25 @@
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1699,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -1758,61 +1825,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
         <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.632</v>
+        <v>0.627</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J8" t="n">
-        <v>79.09999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="K8" t="n">
         <v>0.466</v>
       </c>
       <c r="L8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M8" t="n">
         <v>17.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O8" t="n">
         <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
         <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
         <v>8.5</v>
@@ -1824,19 +1891,19 @@
         <v>5.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>103</v>
+        <v>102.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1848,25 +1915,25 @@
         <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1878,13 +1945,13 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -1905,13 +1972,13 @@
         <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2048,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2060,13 +2127,13 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2269,13 +2336,13 @@
         <v>22</v>
       </c>
       <c r="BA10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -2304,58 +2371,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
         <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.638</v>
+        <v>0.632</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J11" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.451</v>
       </c>
       <c r="L11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M11" t="n">
         <v>20.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.371</v>
+        <v>0.374</v>
       </c>
       <c r="O11" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P11" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.806</v>
+        <v>0.804</v>
       </c>
       <c r="R11" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S11" t="n">
         <v>32.4</v>
       </c>
       <c r="T11" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V11" t="n">
         <v>14.3</v>
@@ -2364,28 +2431,28 @@
         <v>6.9</v>
       </c>
       <c r="X11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="n">
         <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2415,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2436,7 +2503,7 @@
         <v>20</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2454,10 +2521,10 @@
         <v>14</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2585,25 +2652,25 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
         <v>22</v>
       </c>
       <c r="AQ12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR12" t="n">
         <v>11</v>
@@ -2618,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
         <v>20</v>
@@ -2633,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2788,7 +2855,7 @@
         <v>27</v>
       </c>
       <c r="AR13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>0.803</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
@@ -2877,31 +2944,31 @@
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="P14" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
         <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
         <v>13.5</v>
@@ -2919,25 +2986,25 @@
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.4</v>
+        <v>108.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
@@ -2955,25 +3022,25 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,13 +3055,13 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="n">
-        <v>0.258</v>
+        <v>0.262</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3056,19 +3123,19 @@
         <v>0.45</v>
       </c>
       <c r="L15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M15" t="n">
         <v>13.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O15" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
         <v>0.753</v>
@@ -3077,13 +3144,13 @@
         <v>10.5</v>
       </c>
       <c r="S15" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T15" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="U15" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
@@ -3107,16 +3174,16 @@
         <v>93.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,10 +3207,10 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3152,7 +3219,7 @@
         <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
         <v>28</v>
@@ -3176,13 +3243,13 @@
         <v>27</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3304,7 +3371,7 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3328,7 +3395,7 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3340,10 +3407,10 @@
         <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3364,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" t="n">
-        <v>0.456</v>
+        <v>0.449</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,10 +3481,10 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L17" t="n">
         <v>6.1</v>
@@ -3426,10 +3493,10 @@
         <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
         <v>25.8</v>
@@ -3441,16 +3508,16 @@
         <v>12.2</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3462,34 +3529,34 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3507,10 +3574,10 @@
         <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3522,7 +3589,7 @@
         <v>26</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3549,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3680,16 +3747,16 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
@@ -3698,7 +3765,7 @@
         <v>13</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>18</v>
@@ -3728,7 +3795,7 @@
         <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -3760,19 +3827,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0.418</v>
+        <v>0.424</v>
       </c>
       <c r="H19" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I19" t="n">
         <v>35.8</v>
@@ -3784,19 +3851,19 @@
         <v>0.447</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N19" t="n">
         <v>0.38</v>
       </c>
       <c r="O19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P19" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q19" t="n">
         <v>0.783</v>
@@ -3808,46 +3875,46 @@
         <v>29.3</v>
       </c>
       <c r="T19" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U19" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V19" t="n">
         <v>13.2</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y19" t="n">
         <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.7</v>
+        <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>10</v>
@@ -3862,25 +3929,25 @@
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS19" t="n">
         <v>22</v>
@@ -3889,16 +3956,16 @@
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV19" t="n">
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY19" t="n">
         <v>16</v>
@@ -3910,7 +3977,7 @@
         <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="n">
         <v>41</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>0.621</v>
+        <v>0.631</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
@@ -3963,16 +4030,16 @@
         <v>77</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O20" t="n">
         <v>18.4</v>
@@ -3981,55 +4048,55 @@
         <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R20" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
         <v>39.9</v>
       </c>
       <c r="U20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG20" t="n">
         <v>7</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4050,28 +4117,28 @@
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO20" t="n">
         <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
       </c>
       <c r="AU20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
@@ -4086,16 +4153,16 @@
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG21" t="n">
         <v>19</v>
       </c>
-      <c r="AG21" t="n">
-        <v>20</v>
-      </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4244,7 +4311,7 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" t="n">
         <v>48</v>
       </c>
       <c r="G22" t="n">
-        <v>0.284</v>
+        <v>0.273</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J22" t="n">
         <v>81.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M22" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P22" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q22" t="n">
         <v>0.787</v>
       </c>
       <c r="R22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S22" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T22" t="n">
         <v>43</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
         <v>16.7</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X22" t="n">
         <v>4.4</v>
@@ -4372,19 +4439,19 @@
         <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.4</v>
+        <v>-5.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,16 +4463,16 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4417,10 +4484,10 @@
         <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4450,13 +4517,13 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -4566,25 +4633,25 @@
         <v>7.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
@@ -4620,13 +4687,13 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>24</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -4763,13 +4830,13 @@
         <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
         <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>30</v>
@@ -4814,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -5037,52 +5104,52 @@
         <v>66</v>
       </c>
       <c r="E26" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.636</v>
+        <v>0.621</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
       </c>
       <c r="M26" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O26" t="n">
         <v>18.8</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="O26" t="n">
-        <v>18.9</v>
-      </c>
       <c r="P26" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
         <v>20.2</v>
@@ -5094,43 +5161,43 @@
         <v>6.7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
         <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5139,19 +5206,19 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,13 +5227,13 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5178,16 +5245,16 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA26" t="n">
         <v>13</v>
       </c>
-      <c r="BA26" t="n">
-        <v>12</v>
-      </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5306,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5315,7 +5382,7 @@
         <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
         <v>12</v>
@@ -5324,7 +5391,7 @@
         <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5336,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS27" t="n">
         <v>24</v>
@@ -5351,7 +5418,7 @@
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" t="n">
         <v>44</v>
       </c>
       <c r="F28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.677</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
@@ -5419,37 +5486,37 @@
         <v>79.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M28" t="n">
         <v>19.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.396</v>
+        <v>0.4</v>
       </c>
       <c r="O28" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U28" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V28" t="n">
         <v>12.1</v>
@@ -5458,25 +5525,25 @@
         <v>5.8</v>
       </c>
       <c r="X28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5497,10 +5564,10 @@
         <v>19</v>
       </c>
       <c r="AK28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5551,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -5580,49 +5647,49 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="n">
         <v>24</v>
       </c>
       <c r="F29" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" t="n">
-        <v>0.353</v>
+        <v>0.358</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
         <v>5.9</v>
       </c>
       <c r="M29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O29" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P29" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q29" t="n">
         <v>0.826</v>
       </c>
       <c r="R29" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S29" t="n">
         <v>30.4</v>
@@ -5634,7 +5701,7 @@
         <v>21.8</v>
       </c>
       <c r="V29" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W29" t="n">
         <v>6.2</v>
@@ -5643,28 +5710,28 @@
         <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z29" t="n">
         <v>19.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.7</v>
+        <v>-3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
         <v>23</v>
@@ -5673,28 +5740,28 @@
         <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>18</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>24</v>
       </c>
       <c r="AM29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
         <v>25</v>
@@ -5712,7 +5779,7 @@
         <v>7</v>
       </c>
       <c r="AV29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
@@ -5730,10 +5797,10 @@
         <v>22</v>
       </c>
       <c r="BB29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>3.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>10</v>
@@ -5888,19 +5955,19 @@
         <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
@@ -5909,7 +5976,7 @@
         <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6043,7 +6110,7 @@
         <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6088,7 +6155,7 @@
         <v>21</v>
       </c>
       <c r="AZ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-16-2008-09</t>
+          <t>2009-03-16</t>
         </is>
       </c>
     </row>
